--- a/data.xlsx
+++ b/data.xlsx
@@ -8,12 +8,13 @@
     <sheet name="Export Summary" sheetId="1" r:id="rId4"/>
     <sheet name="tags_ipv4" sheetId="2" r:id="rId5"/>
     <sheet name="tags_for_os" sheetId="3" r:id="rId6"/>
+    <sheet name="tags_for_fqdn" sheetId="4" r:id="rId7"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60">
   <si>
     <t>This document was exported from Numbers. Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -27,10 +28,52 @@
     <t>Excel Worksheet Name</t>
   </si>
   <si>
+    <t>Export Summary</t>
+  </si>
+  <si>
+    <t>Table 1</t>
+  </si>
+  <si>
     <t>tags_ipv4</t>
   </si>
   <si>
-    <t>Table 1</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>tags_ipv4</t>
+    </r>
+  </si>
+  <si>
+    <t>tags_for_os</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>tags_for_os</t>
+    </r>
+  </si>
+  <si>
+    <t>tags_for_fqdn</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>tags_for_fqdn</t>
+    </r>
   </si>
   <si>
     <t>tag_category</t>
@@ -51,37 +94,6 @@
     <t>192.168.0.1/24, 10.0.0.0/8</t>
   </si>
   <si>
-    <t>Country  - South Africa</t>
-  </si>
-  <si>
-    <t>Joburg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">172.0.48.34,
-172.0.48.35,
-172.0.48.36,
-172.0.48.37
-</t>
-  </si>
-  <si>
-    <t>Cape Town</t>
-  </si>
-  <si>
-    <t>172.26.0.0/16</t>
-  </si>
-  <si>
-    <t>Country - South Africa</t>
-  </si>
-  <si>
-    <t>Pretoria</t>
-  </si>
-  <si>
-    <t>192.168.1.0/24, 192.168.2.0/32</t>
-  </si>
-  <si>
-    <t>tags_for_os</t>
-  </si>
-  <si>
     <t>operating_system</t>
   </si>
   <si>
@@ -115,7 +127,7 @@
     <t>Networking Equipment</t>
   </si>
   <si>
-    <t>cisco, nutanix, f5, forti, juniper, palo alto, brocade, huawei, blue coat, linksys, mikrotik, arista</t>
+    <t>cisco,nutanix,f5,forti,juniper,palo alto,brocade,huawei,blue coat,linksys,mikrotik,arista</t>
   </si>
   <si>
     <t>Phones</t>
@@ -203,6 +215,9 @@
   </si>
   <si>
     <t>windows 11</t>
+  </si>
+  <si>
+    <t>fqdn</t>
   </si>
 </sst>
 </file>
@@ -278,21 +293,6 @@
       <left style="thin">
         <color indexed="13"/>
       </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="13"/>
@@ -358,15 +358,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="13"/>
       </right>
@@ -376,13 +367,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -404,18 +419,78 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -434,13 +509,13 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1496,73 +1571,189 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
+    <col min="1" max="1" width="2" style="6" customWidth="1"/>
     <col min="2" max="4" width="28" customWidth="1"/>
+    <col min="2" max="2" width="28" style="6" customWidth="1"/>
+    <col min="3" max="3" width="28" style="6" customWidth="1"/>
+    <col min="4" max="4" width="28" style="6" customWidth="1"/>
+    <col min="5" max="5" width="10" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="10" style="6" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" ht="15.35" customHeight="1">
+      <c r="A1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2" ht="15.35" customHeight="1">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="12"/>
+    </row>
     <row r="3" ht="0.05" customHeight="1">
-      <c r="B3" t="s" s="1">
+      <c r="A3" s="10"/>
+      <c r="B3" t="s" s="13">
         <v>0</v>
       </c>
-      <c r="C3"/>
-      <c r="D3"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" ht="15.35" customHeight="1">
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" ht="15.35" customHeight="1">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" ht="15.35" customHeight="1">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12"/>
     </row>
     <row r="7">
-      <c r="B7" t="s" s="2">
+      <c r="A7" s="10"/>
+      <c r="B7" t="s" s="14">
         <v>1</v>
       </c>
-      <c r="C7" t="s" s="2">
+      <c r="C7" t="s" s="14">
         <v>2</v>
       </c>
-      <c r="D7" t="s" s="2">
+      <c r="D7" t="s" s="14">
         <v>3</v>
       </c>
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" ht="15.35" customHeight="1">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12"/>
     </row>
     <row r="9">
-      <c r="B9" t="s" s="3">
-        <v>4</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="A9" s="10"/>
+      <c r="B9" t="s" s="15">
+        <v>6</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="12"/>
     </row>
     <row r="10">
-      <c r="B10" s="4"/>
-      <c r="C10" t="s" s="4">
+      <c r="A10" s="10"/>
+      <c r="B10" s="17"/>
+      <c r="C10" t="s" s="18">
         <v>5</v>
       </c>
-      <c r="D10" t="s" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="D10" t="s" s="19">
+        <v>7</v>
+      </c>
+      <c r="E10" s="12"/>
+    </row>
+    <row r="11" ht="13" customHeight="1">
+      <c r="A11" s="10"/>
       <c r="B11" t="s" s="3">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-    </row>
-    <row r="12">
+      <c r="E11" s="12"/>
+    </row>
+    <row r="12" ht="13" customHeight="1">
+      <c r="A12" s="20"/>
       <c r="B12" s="4"/>
       <c r="C12" t="s" s="4">
         <v>5</v>
       </c>
       <c r="D12" t="s" s="5">
-        <v>20</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E12" s="21"/>
+    </row>
+    <row r="13" ht="13" customHeight="1">
+      <c r="A13" s="7"/>
+      <c r="B13" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" ht="13" customHeight="1">
+      <c r="A14" s="10"/>
+      <c r="B14" s="4"/>
+      <c r="C14" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s" s="5">
+        <v>8</v>
+      </c>
+      <c r="E14" s="12"/>
+    </row>
+    <row r="15" ht="13" customHeight="1">
+      <c r="A15" s="10"/>
+      <c r="B15" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="12"/>
+    </row>
+    <row r="16" ht="13" customHeight="1">
+      <c r="A16" s="20"/>
+      <c r="B16" s="4"/>
+      <c r="C16" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s" s="5">
+        <v>10</v>
+      </c>
+      <c r="E16" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
+    <mergeCell ref="B3:D3"/>
     <mergeCell ref="B3:D3"/>
   </mergeCells>
   <hyperlinks>
+    <hyperlink ref="D10" location="'Export Summary'!R1C1" tooltip="" display="Export Summary"/>
     <hyperlink ref="D10" location="'tags_ipv4'!R1C1" tooltip="" display="tags_ipv4"/>
-    <hyperlink ref="D12" location="'tags_for_os'!R1C1" tooltip="" display="tags_for_os"/>
+    <hyperlink ref="D12" location="'tags_ipv4'!R1C1" tooltip="" display="tags_ipv4"/>
+    <hyperlink ref="D14" location="'tags_for_os'!R1C1" tooltip="" display="tags_for_os"/>
+    <hyperlink ref="D16" location="'tags_for_fqdn'!R1C1" tooltip="" display="tags_for_fqdn"/>
+    <hyperlink ref="D12" location="'tags_ipv4'!R1C1" tooltip="" display="tags_ipv4"/>
+    <hyperlink ref="D14" location="'tags_for_os'!R1C1" tooltip="" display="tags_for_os"/>
+    <hyperlink ref="D16" location="'tags_for_fqdn'!R1C1" tooltip="" display="tags_for_fqdn"/>
   </hyperlinks>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -1574,497 +1765,479 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="16" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="31.3516" style="6" customWidth="1"/>
-    <col min="2" max="2" width="27.3516" style="6" customWidth="1"/>
-    <col min="3" max="3" width="46.1719" style="6" customWidth="1"/>
-    <col min="4" max="5" width="10.8516" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="10.8516" style="6" customWidth="1"/>
+    <col min="1" max="1" width="31.3516" style="25" customWidth="1"/>
+    <col min="2" max="2" width="27.3516" style="25" customWidth="1"/>
+    <col min="3" max="3" width="46.1719" style="25" customWidth="1"/>
+    <col min="4" max="5" width="10.8516" style="25" customWidth="1"/>
+    <col min="6" max="16384" width="10.8516" style="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.35" customHeight="1">
-      <c r="A1" t="s" s="7">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s" s="7">
-        <v>8</v>
-      </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="A1" t="s" s="26">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s" s="26">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s" s="26">
+        <v>14</v>
+      </c>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" ht="17" customHeight="1">
-      <c r="A2" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s" s="7">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
+      <c r="A2" t="s" s="26">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s" s="26">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s" s="28">
+        <v>17</v>
+      </c>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" ht="85" customHeight="1">
-      <c r="A3" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s" s="9">
-        <v>14</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
     </row>
     <row r="4" ht="15.35" customHeight="1">
-      <c r="A4" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
     </row>
     <row r="5" ht="15.35" customHeight="1">
-      <c r="A5" t="s" s="7">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s" s="7">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s" s="7">
-        <v>19</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
     </row>
     <row r="6" ht="15.35" customHeight="1">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
     </row>
     <row r="7" ht="15.35" customHeight="1">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
     </row>
     <row r="8" ht="15.35" customHeight="1">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
     </row>
     <row r="9" ht="15.35" customHeight="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
     </row>
     <row r="10" ht="15.35" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
     </row>
     <row r="11" ht="15.35" customHeight="1">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
     </row>
     <row r="12" ht="15.35" customHeight="1">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
     </row>
     <row r="13" ht="15.35" customHeight="1">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
     </row>
     <row r="14" ht="15.35" customHeight="1">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
     </row>
     <row r="15" ht="15.35" customHeight="1">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
     </row>
     <row r="16" ht="15.35" customHeight="1">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
     </row>
     <row r="17" ht="15.35" customHeight="1">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
     </row>
     <row r="18" ht="15.35" customHeight="1">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
     </row>
     <row r="19" ht="15.35" customHeight="1">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
     </row>
     <row r="20" ht="15.35" customHeight="1">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
     </row>
     <row r="21" ht="15.35" customHeight="1">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
     </row>
     <row r="22" ht="15.35" customHeight="1">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
     </row>
     <row r="23" ht="15.35" customHeight="1">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
     </row>
     <row r="24" ht="15.35" customHeight="1">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
+      <c r="A24" s="27"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
     </row>
     <row r="25" ht="15.35" customHeight="1">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
+      <c r="A25" s="27"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
     </row>
     <row r="26" ht="15.35" customHeight="1">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
+      <c r="A26" s="27"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
     </row>
     <row r="27" ht="15.35" customHeight="1">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
+      <c r="A27" s="27"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
     </row>
     <row r="28" ht="15.35" customHeight="1">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
+      <c r="A28" s="27"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
     </row>
     <row r="29" ht="15.35" customHeight="1">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
+      <c r="A29" s="27"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
     </row>
     <row r="30" ht="15.35" customHeight="1">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
+      <c r="A30" s="27"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
     </row>
     <row r="31" ht="15.35" customHeight="1">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
+      <c r="A31" s="27"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
     </row>
     <row r="32" ht="15.35" customHeight="1">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
     </row>
     <row r="33" ht="15.35" customHeight="1">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
+      <c r="A33" s="27"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
     </row>
     <row r="34" ht="15.35" customHeight="1">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
+      <c r="A34" s="27"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
     </row>
     <row r="35" ht="15.35" customHeight="1">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
+      <c r="A35" s="27"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
     </row>
     <row r="36" ht="15.35" customHeight="1">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
+      <c r="A36" s="27"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
     </row>
     <row r="37" ht="15.35" customHeight="1">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
+      <c r="A37" s="27"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
     </row>
     <row r="38" ht="15.35" customHeight="1">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
+      <c r="A38" s="27"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
     </row>
     <row r="39" ht="15.35" customHeight="1">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
+      <c r="A39" s="27"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
     </row>
     <row r="40" ht="15.35" customHeight="1">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
+      <c r="A40" s="27"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
     </row>
     <row r="41" ht="15.35" customHeight="1">
-      <c r="A41" s="8"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
+      <c r="A41" s="27"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
     </row>
     <row r="42" ht="15.35" customHeight="1">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
+      <c r="A42" s="27"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
     </row>
     <row r="43" ht="15.35" customHeight="1">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
+      <c r="A43" s="27"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
     </row>
     <row r="44" ht="15.35" customHeight="1">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
+      <c r="A44" s="27"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
     </row>
     <row r="45" ht="15.35" customHeight="1">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
+      <c r="A45" s="27"/>
+      <c r="B45" s="27"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
     </row>
     <row r="46" ht="15.35" customHeight="1">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
+      <c r="A46" s="27"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="27"/>
     </row>
     <row r="47" ht="15.35" customHeight="1">
-      <c r="A47" s="8"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
+      <c r="A47" s="27"/>
+      <c r="B47" s="27"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
     </row>
     <row r="48" ht="15.35" customHeight="1">
-      <c r="A48" s="8"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
+      <c r="A48" s="27"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
     </row>
     <row r="49" ht="15.35" customHeight="1">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
+      <c r="A49" s="27"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
     </row>
     <row r="50" ht="15.35" customHeight="1">
-      <c r="A50" s="8"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
+      <c r="A50" s="27"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
     </row>
     <row r="51" ht="15.35" customHeight="1">
-      <c r="A51" s="8"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
+      <c r="A51" s="27"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
     </row>
     <row r="52" ht="15.35" customHeight="1">
-      <c r="A52" s="8"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
+      <c r="A52" s="27"/>
+      <c r="B52" s="27"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="27"/>
     </row>
     <row r="53" ht="15.35" customHeight="1">
-      <c r="A53" s="8"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
+      <c r="A53" s="27"/>
+      <c r="B53" s="27"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="27"/>
     </row>
     <row r="54" ht="15.35" customHeight="1">
-      <c r="A54" s="8"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
+      <c r="A54" s="27"/>
+      <c r="B54" s="27"/>
+      <c r="C54" s="27"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="27"/>
     </row>
     <row r="55" ht="15.35" customHeight="1">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
+      <c r="A55" s="27"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
     </row>
     <row r="56" ht="15.35" customHeight="1">
-      <c r="A56" s="8"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
+      <c r="A56" s="27"/>
+      <c r="B56" s="27"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
     </row>
     <row r="57" ht="15.35" customHeight="1">
-      <c r="A57" s="8"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
+      <c r="A57" s="27"/>
+      <c r="B57" s="27"/>
+      <c r="C57" s="27"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="27"/>
     </row>
     <row r="58" ht="15.35" customHeight="1">
-      <c r="A58" s="8"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
+      <c r="A58" s="27"/>
+      <c r="B58" s="27"/>
+      <c r="C58" s="27"/>
+      <c r="D58" s="27"/>
+      <c r="E58" s="27"/>
     </row>
     <row r="59" ht="15.35" customHeight="1">
-      <c r="A59" s="8"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
+      <c r="A59" s="27"/>
+      <c r="B59" s="27"/>
+      <c r="C59" s="27"/>
+      <c r="D59" s="27"/>
+      <c r="E59" s="27"/>
     </row>
     <row r="60" ht="15.35" customHeight="1">
-      <c r="A60" s="8"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
+      <c r="A60" s="27"/>
+      <c r="B60" s="27"/>
+      <c r="C60" s="27"/>
+      <c r="D60" s="27"/>
+      <c r="E60" s="27"/>
     </row>
     <row r="61" ht="15.35" customHeight="1">
-      <c r="A61" s="8"/>
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
+      <c r="A61" s="27"/>
+      <c r="B61" s="27"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="27"/>
+      <c r="E61" s="27"/>
     </row>
     <row r="62" ht="15.35" customHeight="1">
-      <c r="A62" s="8"/>
-      <c r="B62" s="8"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
+      <c r="A62" s="27"/>
+      <c r="B62" s="27"/>
+      <c r="C62" s="27"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="27"/>
     </row>
     <row r="63" ht="15.35" customHeight="1">
-      <c r="A63" s="8"/>
-      <c r="B63" s="8"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
+      <c r="A63" s="27"/>
+      <c r="B63" s="27"/>
+      <c r="C63" s="27"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="27"/>
     </row>
     <row r="64" ht="15.35" customHeight="1">
-      <c r="A64" s="8"/>
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
+      <c r="A64" s="27"/>
+      <c r="B64" s="27"/>
+      <c r="C64" s="27"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="27"/>
     </row>
     <row r="65" ht="15.35" customHeight="1">
-      <c r="A65" s="8"/>
-      <c r="B65" s="8"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
+      <c r="A65" s="27"/>
+      <c r="B65" s="27"/>
+      <c r="C65" s="27"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2083,272 +2256,442 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="16" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="31.3516" style="10" customWidth="1"/>
-    <col min="2" max="2" width="21" style="10" customWidth="1"/>
-    <col min="3" max="3" width="185.852" style="10" customWidth="1"/>
-    <col min="4" max="5" width="10.8516" style="10" customWidth="1"/>
-    <col min="6" max="16384" width="10.8516" style="10" customWidth="1"/>
+    <col min="1" max="1" width="31.3516" style="29" customWidth="1"/>
+    <col min="2" max="2" width="21" style="29" customWidth="1"/>
+    <col min="3" max="3" width="185.852" style="29" customWidth="1"/>
+    <col min="4" max="5" width="10.8516" style="29" customWidth="1"/>
+    <col min="6" max="16384" width="10.8516" style="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.35" customHeight="1">
-      <c r="A1" t="s" s="7">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s" s="7">
+      <c r="A1" t="s" s="26">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s" s="26">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s" s="26">
+        <v>18</v>
+      </c>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+    </row>
+    <row r="2" ht="15.35" customHeight="1">
+      <c r="A2" t="s" s="30">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s" s="31">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="32">
         <v>21</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+    </row>
+    <row r="3" ht="15.35" customHeight="1">
+      <c r="A3" t="s" s="33">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s" s="34">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s" s="35">
+        <v>23</v>
+      </c>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+    </row>
+    <row r="4" ht="15.35" customHeight="1">
+      <c r="A4" t="s" s="33">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s" s="34">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s" s="35">
+        <v>25</v>
+      </c>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+    </row>
+    <row r="5" ht="15.35" customHeight="1">
+      <c r="A5" t="s" s="33">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s" s="34">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s" s="35">
+        <v>27</v>
+      </c>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+    </row>
+    <row r="6" ht="15.35" customHeight="1">
+      <c r="A6" t="s" s="33">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s" s="34">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s" s="35">
+        <v>29</v>
+      </c>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+    </row>
+    <row r="7" ht="15.35" customHeight="1">
+      <c r="A7" t="s" s="33">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s" s="34">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s" s="35">
+        <v>31</v>
+      </c>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+    </row>
+    <row r="8" ht="18" customHeight="1">
+      <c r="A8" t="s" s="33">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s" s="34">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s" s="35">
+        <v>33</v>
+      </c>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+    </row>
+    <row r="9" ht="15.35" customHeight="1">
+      <c r="A9" t="s" s="33">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s" s="34">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s" s="35">
+        <v>35</v>
+      </c>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+    </row>
+    <row r="10" ht="15.35" customHeight="1">
+      <c r="A10" t="s" s="33">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s" s="34">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s" s="35">
+        <v>37</v>
+      </c>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+    </row>
+    <row r="11" ht="15.35" customHeight="1">
+      <c r="A11" t="s" s="33">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s" s="34">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s" s="35">
+        <v>39</v>
+      </c>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+    </row>
+    <row r="12" ht="15.35" customHeight="1">
+      <c r="A12" t="s" s="33">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s" s="34">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s" s="35">
+        <v>41</v>
+      </c>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+    </row>
+    <row r="13" ht="15.35" customHeight="1">
+      <c r="A13" t="s" s="33">
+        <v>42</v>
+      </c>
+      <c r="B13" t="s" s="34">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s" s="35">
+        <v>44</v>
+      </c>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+    </row>
+    <row r="14" ht="15.35" customHeight="1">
+      <c r="A14" t="s" s="33">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s" s="34">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s" s="35">
+        <v>46</v>
+      </c>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+    </row>
+    <row r="15" ht="15.35" customHeight="1">
+      <c r="A15" t="s" s="33">
+        <v>42</v>
+      </c>
+      <c r="B15" t="s" s="34">
+        <v>47</v>
+      </c>
+      <c r="C15" t="s" s="35">
+        <v>48</v>
+      </c>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+    </row>
+    <row r="16" ht="15.35" customHeight="1">
+      <c r="A16" t="s" s="33">
+        <v>42</v>
+      </c>
+      <c r="B16" t="s" s="34">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s" s="35">
+        <v>50</v>
+      </c>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+    </row>
+    <row r="17" ht="15.35" customHeight="1">
+      <c r="A17" t="s" s="33">
+        <v>36</v>
+      </c>
+      <c r="B17" t="s" s="34">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s" s="35">
+        <v>52</v>
+      </c>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+    </row>
+    <row r="18" ht="15.35" customHeight="1">
+      <c r="A18" t="s" s="33">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s" s="34">
+        <v>53</v>
+      </c>
+      <c r="C18" t="s" s="35">
+        <v>54</v>
+      </c>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+    </row>
+    <row r="19" ht="15.35" customHeight="1">
+      <c r="A19" t="s" s="33">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s" s="34">
+        <v>55</v>
+      </c>
+      <c r="C19" t="s" s="35">
+        <v>56</v>
+      </c>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+    </row>
+    <row r="20" ht="15.35" customHeight="1">
+      <c r="A20" t="s" s="36">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s" s="37">
+        <v>57</v>
+      </c>
+      <c r="C20" t="s" s="38">
+        <v>58</v>
+      </c>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="16" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="31.3516" style="39" customWidth="1"/>
+    <col min="2" max="2" width="21" style="39" customWidth="1"/>
+    <col min="3" max="3" width="185.852" style="39" customWidth="1"/>
+    <col min="4" max="5" width="10.8516" style="39" customWidth="1"/>
+    <col min="6" max="16384" width="10.8516" style="39" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.35" customHeight="1">
+      <c r="A1" t="s" s="26">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s" s="26">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s" s="26">
+        <v>59</v>
+      </c>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" ht="15.35" customHeight="1">
-      <c r="A2" t="s" s="11">
-        <v>22</v>
-      </c>
-      <c r="B2" t="s" s="12">
-        <v>23</v>
-      </c>
-      <c r="C2" t="s" s="13">
-        <v>24</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" ht="15.35" customHeight="1">
-      <c r="A3" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="B3" t="s" s="15">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s" s="16">
-        <v>26</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
     </row>
     <row r="4" ht="15.35" customHeight="1">
-      <c r="A4" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s" s="15">
-        <v>27</v>
-      </c>
-      <c r="C4" t="s" s="16">
-        <v>28</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
     </row>
     <row r="5" ht="15.35" customHeight="1">
-      <c r="A5" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="B5" t="s" s="15">
-        <v>29</v>
-      </c>
-      <c r="C5" t="s" s="16">
-        <v>30</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
     </row>
     <row r="6" ht="15.35" customHeight="1">
-      <c r="A6" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s" s="15">
-        <v>31</v>
-      </c>
-      <c r="C6" t="s" s="16">
-        <v>32</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
     </row>
     <row r="7" ht="15.35" customHeight="1">
-      <c r="A7" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s" s="15">
-        <v>33</v>
-      </c>
-      <c r="C7" t="s" s="16">
-        <v>34</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
     </row>
     <row r="8" ht="18" customHeight="1">
-      <c r="A8" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s" s="15">
-        <v>35</v>
-      </c>
-      <c r="C8" t="s" s="16">
-        <v>36</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
+      <c r="A8" s="33"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
     </row>
     <row r="9" ht="15.35" customHeight="1">
-      <c r="A9" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s" s="15">
-        <v>37</v>
-      </c>
-      <c r="C9" t="s" s="16">
-        <v>38</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
     </row>
     <row r="10" ht="15.35" customHeight="1">
-      <c r="A10" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s" s="15">
-        <v>39</v>
-      </c>
-      <c r="C10" t="s" s="16">
-        <v>40</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
+      <c r="A10" s="33"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
     </row>
     <row r="11" ht="15.35" customHeight="1">
-      <c r="A11" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s" s="15">
-        <v>41</v>
-      </c>
-      <c r="C11" t="s" s="16">
-        <v>42</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
+      <c r="A11" s="33"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
     </row>
     <row r="12" ht="15.35" customHeight="1">
-      <c r="A12" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s" s="15">
-        <v>43</v>
-      </c>
-      <c r="C12" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
+      <c r="A12" s="33"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
     </row>
     <row r="13" ht="15.35" customHeight="1">
-      <c r="A13" t="s" s="14">
-        <v>45</v>
-      </c>
-      <c r="B13" t="s" s="15">
-        <v>46</v>
-      </c>
-      <c r="C13" t="s" s="16">
-        <v>47</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
     </row>
     <row r="14" ht="15.35" customHeight="1">
-      <c r="A14" t="s" s="14">
-        <v>45</v>
-      </c>
-      <c r="B14" t="s" s="15">
-        <v>48</v>
-      </c>
-      <c r="C14" t="s" s="16">
-        <v>49</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
+      <c r="A14" s="33"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
     </row>
     <row r="15" ht="15.35" customHeight="1">
-      <c r="A15" t="s" s="14">
-        <v>45</v>
-      </c>
-      <c r="B15" t="s" s="15">
-        <v>50</v>
-      </c>
-      <c r="C15" t="s" s="16">
-        <v>51</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
     </row>
     <row r="16" ht="15.35" customHeight="1">
-      <c r="A16" t="s" s="14">
-        <v>45</v>
-      </c>
-      <c r="B16" t="s" s="15">
-        <v>52</v>
-      </c>
-      <c r="C16" t="s" s="16">
-        <v>53</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
+      <c r="A16" s="33"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
     </row>
     <row r="17" ht="15.35" customHeight="1">
-      <c r="A17" t="s" s="14">
-        <v>39</v>
-      </c>
-      <c r="B17" t="s" s="15">
-        <v>54</v>
-      </c>
-      <c r="C17" t="s" s="16">
-        <v>55</v>
-      </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
+      <c r="A17" s="33"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
     </row>
     <row r="18" ht="15.35" customHeight="1">
-      <c r="A18" t="s" s="14">
-        <v>39</v>
-      </c>
-      <c r="B18" t="s" s="15">
-        <v>56</v>
-      </c>
-      <c r="C18" t="s" s="16">
-        <v>57</v>
-      </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
+      <c r="A18" s="33"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
     </row>
     <row r="19" ht="15.35" customHeight="1">
-      <c r="A19" t="s" s="14">
-        <v>39</v>
-      </c>
-      <c r="B19" t="s" s="15">
-        <v>58</v>
-      </c>
-      <c r="C19" t="s" s="16">
-        <v>59</v>
-      </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
+      <c r="A19" s="33"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
     </row>
     <row r="20" ht="15.35" customHeight="1">
-      <c r="A20" t="s" s="17">
-        <v>39</v>
-      </c>
-      <c r="B20" t="s" s="18">
-        <v>60</v>
-      </c>
-      <c r="C20" t="s" s="19">
-        <v>61</v>
-      </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
